--- a/forecast_summary_B09WZKXNVP.xlsx
+++ b/forecast_summary_B09WZKXNVP.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-36.42983802997486</v>
       </c>
       <c r="D2" t="n">
-        <v>-24.92160907108872</v>
+        <v>-24.69467648982573</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-72.71620664506246</v>
       </c>
       <c r="D3" t="n">
-        <v>-60.65145490094825</v>
+        <v>-61.32609971925559</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-86.01194784201812</v>
       </c>
       <c r="D4" t="n">
-        <v>-74.30054314208574</v>
+        <v>-73.66250836645719</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-64.29817899365288</v>
       </c>
       <c r="D5" t="n">
-        <v>-52.7050866686522</v>
+        <v>-52.53062923877584</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-24.67953093944583</v>
       </c>
       <c r="D6" t="n">
-        <v>-13.25363207692464</v>
+        <v>-13.62057640280435</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>1.579703355729404</v>
       </c>
       <c r="D7" t="n">
-        <v>11.85285951768645</v>
+        <v>12.77652358881581</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-1.37026072881554</v>
       </c>
       <c r="D8" t="n">
-        <v>9.819987786074185</v>
+        <v>10.73437605669701</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-20.54285822399869</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.624530760714832</v>
+        <v>-9.344952783563498</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-30.31808985068445</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.92021260529686</v>
+        <v>-19.24788167606403</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-19.5688473797322</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.100378156883743</v>
+        <v>-7.422914276643864</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.3973951568936617</v>
       </c>
       <c r="D12" t="n">
-        <v>11.457031939529</v>
+        <v>10.66071440525102</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>8.578890438239897</v>
       </c>
       <c r="D13" t="n">
-        <v>19.93639333757781</v>
+        <v>21.24688279621133</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>3.065821741581658</v>
       </c>
       <c r="D14" t="n">
-        <v>14.0591304747119</v>
+        <v>13.79397959815652</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-5.26373141672481</v>
       </c>
       <c r="D15" t="n">
-        <v>6.590246067037059</v>
+        <v>6.0344117073551</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-5.128584505564349</v>
       </c>
       <c r="D16" t="n">
-        <v>6.687202903707532</v>
+        <v>7.378783528409742</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>1.53138920913585</v>
       </c>
       <c r="D17" t="n">
-        <v>12.67271905267044</v>
+        <v>13.24753943459015</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>4.667384632807456</v>
       </c>
       <c r="D18" t="n">
-        <v>15.83041863131158</v>
+        <v>15.29209061229303</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>0.2759151754728572</v>
       </c>
       <c r="D19" t="n">
-        <v>12.12515920043107</v>
+        <v>11.86498766617284</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-5.131945982304921</v>
       </c>
       <c r="D20" t="n">
-        <v>7.169345482957728</v>
+        <v>6.056784132480691</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-4.196177942673571</v>
       </c>
       <c r="D21" t="n">
-        <v>7.311197033015898</v>
+        <v>7.731444161626503</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 GAMING X</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
